--- a/assets/findings/2024-02-08-findings.xlsx
+++ b/assets/findings/2024-02-08-findings.xlsx
@@ -635,8 +635,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -668,8 +670,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -734,8 +738,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -767,8 +773,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -833,8 +841,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -866,8 +876,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -932,8 +944,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -965,8 +979,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1031,8 +1047,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1064,8 +1082,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1130,8 +1150,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1163,8 +1185,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1229,8 +1253,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1262,8 +1288,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1328,8 +1356,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1361,8 +1391,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1427,8 +1459,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1460,8 +1494,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1526,8 +1562,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1559,8 +1597,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1625,8 +1665,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1658,8 +1700,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1724,8 +1768,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1757,8 +1803,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1823,8 +1871,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1856,8 +1906,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1922,8 +1974,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1955,8 +2009,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2021,8 +2077,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2054,8 +2112,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2120,8 +2180,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2153,8 +2215,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2408,8 +2472,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2441,8 +2507,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2507,8 +2575,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2540,8 +2610,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2606,8 +2678,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2639,8 +2713,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2705,8 +2781,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2738,8 +2816,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2804,8 +2884,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -2837,8 +2919,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2903,8 +2987,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -2936,8 +3022,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3002,8 +3090,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3035,8 +3125,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3101,8 +3193,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3134,8 +3228,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3373,8 +3469,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -3406,8 +3504,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3472,8 +3572,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -3505,8 +3607,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3571,8 +3675,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -3604,8 +3710,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3670,8 +3778,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -3703,8 +3813,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3769,8 +3881,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -3802,8 +3916,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3868,8 +3984,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -3901,8 +4019,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3967,8 +4087,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -4000,8 +4122,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -4066,8 +4190,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -4099,8 +4225,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -4165,8 +4293,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -4198,8 +4328,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -4264,8 +4396,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -4297,8 +4431,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -4363,8 +4499,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -4396,8 +4534,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -4462,8 +4602,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4495,8 +4637,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -4561,8 +4705,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -4594,8 +4740,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -4660,8 +4808,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -4693,8 +4843,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -4759,8 +4911,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -4792,8 +4946,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -4858,8 +5014,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -4891,8 +5049,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -4957,8 +5117,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -4990,8 +5152,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -5056,8 +5220,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -5089,8 +5255,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -5155,8 +5323,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -5188,8 +5358,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -5254,8 +5426,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -5287,8 +5461,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -5353,8 +5529,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -5386,8 +5564,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -5651,8 +5831,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5684,8 +5866,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5750,8 +5934,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5783,8 +5969,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5849,8 +6037,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -5882,8 +6072,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5948,8 +6140,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5981,8 +6175,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -6047,8 +6243,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -6080,8 +6278,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -6146,8 +6346,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -6179,8 +6381,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -6245,8 +6449,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -6278,8 +6484,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -6344,8 +6552,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -6377,8 +6587,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -6616,8 +6828,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -6649,8 +6863,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6874,8 +7090,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -6907,8 +7125,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6973,8 +7193,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -7006,8 +7228,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7072,8 +7296,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -7105,8 +7331,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7171,8 +7399,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -7204,8 +7434,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7270,8 +7502,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -7303,8 +7537,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -7369,8 +7605,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -7402,8 +7640,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -7468,8 +7708,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -7501,8 +7743,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -7567,8 +7811,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -7600,8 +7846,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -7666,8 +7914,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -7699,8 +7949,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -7765,8 +8017,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -7798,8 +8052,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -7864,8 +8120,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -7897,8 +8155,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -7963,8 +8223,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -7996,8 +8258,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -8062,8 +8326,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -8095,8 +8361,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -8161,8 +8429,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -8194,8 +8464,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -8260,8 +8532,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -8293,8 +8567,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -8359,8 +8635,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -8392,8 +8670,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -8458,8 +8738,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -8491,8 +8773,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -8557,8 +8841,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -8590,8 +8876,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -8656,8 +8944,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -8689,8 +8979,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -8755,8 +9047,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -8788,8 +9082,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -8854,8 +9150,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -8887,8 +9185,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -8953,8 +9253,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -8986,8 +9288,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -9052,8 +9356,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -9085,8 +9391,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -9151,8 +9459,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -9184,8 +9494,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -9250,8 +9562,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -9283,8 +9597,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -9349,8 +9665,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -9382,8 +9700,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -9448,8 +9768,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -9481,8 +9803,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -9547,8 +9871,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -9580,8 +9906,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -9646,8 +9974,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -9679,8 +10009,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -9745,8 +10077,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -9778,8 +10112,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -9844,8 +10180,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -9877,8 +10215,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -9943,8 +10283,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -9976,8 +10318,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -10042,8 +10386,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -10075,8 +10421,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -10141,8 +10489,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -10174,8 +10524,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -10240,8 +10592,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -10273,8 +10627,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -10339,8 +10695,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -10372,8 +10730,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -10438,8 +10798,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -10471,8 +10833,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -10537,8 +10901,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -10570,8 +10936,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -10636,8 +11004,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -10669,8 +11039,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -10735,8 +11107,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -10768,8 +11142,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -10834,8 +11210,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -10867,8 +11245,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -10933,8 +11313,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -10966,8 +11348,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -11032,8 +11416,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -11065,8 +11451,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -11131,8 +11519,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -11164,8 +11554,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -11230,8 +11622,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -11263,8 +11657,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -11329,8 +11725,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -11362,8 +11760,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -11428,8 +11828,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -11461,8 +11863,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -11527,8 +11931,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -11560,8 +11966,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -11626,8 +12034,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -11659,8 +12069,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>1</v>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -11725,8 +12137,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -11758,8 +12172,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -11824,8 +12240,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -11857,8 +12275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -11923,8 +12343,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -11956,8 +12378,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>1</v>
+      <c r="U53" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -12022,8 +12446,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -12055,8 +12481,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -12121,8 +12549,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -12154,8 +12584,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -12220,8 +12652,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -12253,8 +12687,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>1</v>
+      <c r="U56" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -12319,8 +12755,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -12352,8 +12790,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>1</v>
+      <c r="U57" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -12418,8 +12858,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -12451,8 +12893,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -12517,8 +12961,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -12550,8 +12996,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>1</v>
+      <c r="U59" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -12616,8 +13064,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -12649,8 +13099,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>1</v>
+      <c r="U60" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -12715,8 +13167,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -12748,8 +13202,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -12814,8 +13270,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -12847,8 +13305,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
+      <c r="U62" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -12913,8 +13373,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -12946,8 +13408,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -13012,8 +13476,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -13045,8 +13511,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -13111,8 +13579,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -13144,8 +13614,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -13210,8 +13682,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -13243,8 +13717,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -13309,8 +13785,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -13342,8 +13820,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -13408,8 +13888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -13441,8 +13923,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -13507,8 +13991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -13540,8 +14026,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -13606,8 +14094,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -13639,8 +14129,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -13705,8 +14197,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -13738,8 +14232,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -13804,8 +14300,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -13837,8 +14335,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -13903,8 +14403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -13936,8 +14438,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -14002,8 +14506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -14035,8 +14541,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -14101,8 +14609,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -14134,8 +14644,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -14200,8 +14712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -14233,8 +14747,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -14299,8 +14815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -14332,8 +14850,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -14398,8 +14918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -14431,8 +14953,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -14497,8 +15021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -14530,8 +15056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -14596,8 +15124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -14629,8 +15159,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -14695,8 +15227,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -14728,8 +15262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -14794,8 +15330,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -14827,8 +15365,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -14893,8 +15433,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M83" t="b">
-        <v>0</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -14926,8 +15468,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U83" t="b">
-        <v>0</v>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -14992,8 +15536,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M84" t="b">
-        <v>0</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -15025,8 +15571,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U84" t="b">
-        <v>1</v>
+      <c r="U84" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -15091,8 +15639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M85" t="b">
-        <v>0</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -15124,8 +15674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U85" t="b">
-        <v>1</v>
+      <c r="U85" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -15190,8 +15742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M86" t="b">
-        <v>0</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -15223,8 +15777,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U86" t="b">
-        <v>1</v>
+      <c r="U86" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -15289,8 +15845,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M87" t="b">
-        <v>0</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -15322,8 +15880,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U87" t="b">
-        <v>1</v>
+      <c r="U87" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -15388,8 +15948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M88" t="b">
-        <v>0</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -15421,8 +15983,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U88" t="b">
-        <v>1</v>
+      <c r="U88" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -15487,8 +16051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M89" t="b">
-        <v>0</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -15520,8 +16086,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U89" t="b">
-        <v>1</v>
+      <c r="U89" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -15919,8 +16487,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15952,8 +16522,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16018,8 +16590,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -16051,8 +16625,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -16117,8 +16693,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -16150,8 +16728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -16216,8 +16796,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -16249,8 +16831,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -16315,8 +16899,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -16348,8 +16934,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -16414,8 +17002,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -16447,8 +17037,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -16513,8 +17105,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -16546,8 +17140,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -16612,8 +17208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -16645,8 +17243,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -16711,8 +17311,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -16744,8 +17346,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -16810,8 +17414,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -16843,8 +17449,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -16909,8 +17517,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -16942,8 +17552,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -17008,8 +17620,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -17041,8 +17655,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -17107,8 +17723,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -17140,8 +17758,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -17206,8 +17826,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -17239,8 +17861,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -17305,8 +17929,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
@@ -17338,8 +17964,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -17404,8 +18032,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -17437,8 +18067,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -17503,8 +18135,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -17536,8 +18170,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -17602,8 +18238,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -17635,8 +18273,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -17701,8 +18341,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -17734,8 +18376,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -17800,8 +18444,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -17833,8 +18479,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -17899,8 +18547,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -17932,8 +18582,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -17998,8 +18650,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -18031,8 +18685,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -18097,8 +18753,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -18130,8 +18788,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -18196,8 +18856,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -18229,8 +18891,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -18295,8 +18959,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -18328,8 +18994,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -18394,8 +19062,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -18427,8 +19097,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -18493,8 +19165,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -18526,8 +19200,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -18592,8 +19268,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -18625,8 +19303,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -18691,8 +19371,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -18724,8 +19406,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -18790,8 +19474,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -18823,8 +19509,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -18889,8 +19577,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -18922,8 +19612,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -18988,8 +19680,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -19021,8 +19715,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -19087,8 +19783,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
@@ -19120,8 +19818,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -19186,8 +19886,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
@@ -19219,8 +19921,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -19510,8 +20214,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -19543,8 +20249,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -19609,8 +20317,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -19642,8 +20352,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -19708,8 +20420,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -19741,8 +20455,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -19807,8 +20523,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -19840,8 +20558,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -19906,8 +20626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -19939,8 +20661,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -20005,8 +20729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -20038,8 +20764,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -20104,8 +20832,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -20137,8 +20867,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -20203,8 +20935,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -20236,8 +20970,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -20302,8 +21038,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -20335,8 +21073,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -20401,8 +21141,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -20434,8 +21176,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -20500,8 +21244,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -20533,8 +21279,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -20599,8 +21347,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -20632,8 +21382,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -20698,8 +21450,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -20731,8 +21485,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -20797,8 +21553,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -20830,8 +21588,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -20896,8 +21656,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -20929,8 +21691,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -20995,8 +21759,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -21028,8 +21794,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -21094,8 +21862,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -21127,8 +21897,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -21193,8 +21965,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -21226,8 +22000,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -21292,8 +22068,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -21325,8 +22103,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -21391,8 +22171,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -21424,8 +22206,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -21490,8 +22274,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -21523,8 +22309,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -21589,8 +22377,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -21622,8 +22412,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -21688,8 +22480,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -21721,8 +22515,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -21990,8 +22786,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -22023,8 +22821,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -22089,8 +22889,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -22122,8 +22924,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -22188,8 +22992,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -22221,8 +23027,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -22450,8 +23258,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -22483,8 +23293,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -22549,8 +23361,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -22582,8 +23396,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -22648,8 +23464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -22681,8 +23499,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -22910,8 +23730,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -22943,8 +23765,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -23168,8 +23992,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -23201,8 +24027,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -23267,8 +24095,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -23300,8 +24130,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -23366,8 +24198,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -23399,8 +24233,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -23628,8 +24464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -23661,8 +24499,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -23727,8 +24567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -23760,8 +24602,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -23826,8 +24670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -23859,8 +24705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -23925,8 +24773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -23958,8 +24808,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -24024,8 +24876,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -24057,8 +24911,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -24123,8 +24979,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -24156,8 +25014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -24222,8 +25082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -24255,8 +25117,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -24321,8 +25185,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -24354,8 +25220,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -24420,8 +25288,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -24453,8 +25323,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -24519,8 +25391,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -24552,8 +25426,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -24618,8 +25494,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -24651,8 +25529,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -24717,8 +25597,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -24750,8 +25632,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -24816,8 +25700,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -24849,8 +25735,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -24915,8 +25803,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -24948,8 +25838,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -25014,8 +25906,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -25047,8 +25941,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -25113,8 +26009,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -25146,8 +26044,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -25212,8 +26112,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -25245,8 +26147,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -25311,8 +26215,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -25344,8 +26250,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -25410,8 +26318,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -25443,8 +26353,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -25509,8 +26421,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -25542,8 +26456,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -25608,8 +26524,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -25641,8 +26559,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -25707,8 +26627,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -25740,8 +26662,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -25806,8 +26730,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -25839,8 +26765,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -25905,8 +26833,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -25938,8 +26868,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -26004,8 +26936,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -26037,8 +26971,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -26103,8 +27039,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -26136,8 +27074,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -26202,8 +27142,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -26235,8 +27177,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -26301,8 +27245,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -26334,8 +27280,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -26400,8 +27348,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -26433,8 +27383,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -26499,8 +27451,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -26532,8 +27486,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -26598,8 +27554,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -26631,8 +27589,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -26697,8 +27657,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -26730,8 +27692,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -26796,8 +27760,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -26829,8 +27795,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -26895,8 +27863,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -26928,8 +27898,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -26994,8 +27966,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -27027,8 +28001,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -27093,8 +28069,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -27126,8 +28104,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -27192,8 +28172,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -27225,8 +28207,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -27291,8 +28275,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -27324,8 +28310,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -27390,8 +28378,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -27423,8 +28413,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -27489,8 +28481,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -27522,8 +28516,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -27588,8 +28584,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -27621,8 +28619,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -27687,8 +28687,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -27720,8 +28722,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -27786,8 +28790,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -27819,8 +28825,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -27885,8 +28893,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -27918,8 +28928,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -27984,8 +28996,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -28017,8 +29031,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -28083,8 +29099,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -28116,8 +29134,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -28182,8 +29202,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -28215,8 +29237,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>1</v>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -28281,8 +29305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -28314,8 +29340,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -28380,8 +29408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -28413,8 +29443,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -28479,8 +29511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -28512,8 +29546,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -28578,8 +29614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -28611,8 +29649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>1</v>
+      <c r="U52" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -28677,8 +29717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -28710,8 +29752,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -28776,8 +29820,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -28809,8 +29855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>1</v>
+      <c r="U54" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -28875,8 +29923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -28908,8 +29958,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -28974,8 +30026,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -29007,8 +30061,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -29073,8 +30129,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -29106,8 +30164,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -29172,8 +30232,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -29205,8 +30267,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -29271,8 +30335,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -29304,8 +30370,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -29370,8 +30438,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -29403,8 +30473,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -29469,8 +30541,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -29502,8 +30576,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -29568,8 +30644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -29601,8 +30679,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -29667,8 +30747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -29700,8 +30782,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -29766,8 +30850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -29799,8 +30885,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -29865,8 +30953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -29898,8 +30988,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -29964,8 +31056,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -29997,8 +31091,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -30063,8 +31159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -30096,8 +31194,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -30162,8 +31262,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -30195,8 +31297,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -30261,8 +31365,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -30294,8 +31400,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -30360,8 +31468,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -30393,8 +31503,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -30459,8 +31571,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -30492,8 +31606,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -30558,8 +31674,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -30591,8 +31709,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -30657,8 +31777,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -30690,8 +31812,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -30756,8 +31880,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -30789,8 +31915,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -30855,8 +31983,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -30888,8 +32018,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -30954,8 +32086,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -30987,8 +32121,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>1</v>
+      <c r="U76" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -31053,8 +32189,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -31086,8 +32224,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>1</v>
+      <c r="U77" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -31152,8 +32292,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -31185,8 +32327,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>1</v>
+      <c r="U78" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -31251,8 +32395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -31284,8 +32430,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>1</v>
+      <c r="U79" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -31350,8 +32498,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -31383,8 +32533,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>1</v>
+      <c r="U80" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -31449,8 +32601,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -31482,8 +32636,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>1</v>
+      <c r="U81" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -31865,8 +33021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -31898,8 +33056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -31964,8 +33124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -31997,8 +33159,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -32063,8 +33227,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -32096,8 +33262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -32162,8 +33330,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -32195,8 +33365,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -32261,8 +33433,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -32294,8 +33468,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -32360,8 +33536,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -32393,8 +33571,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -32459,8 +33639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -32492,8 +33674,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -32558,8 +33742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -32591,8 +33777,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -32657,8 +33845,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -32690,8 +33880,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -32756,8 +33948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -32789,8 +33983,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -32855,8 +34051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -32888,8 +34086,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -32954,8 +34154,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -32987,8 +34189,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -33053,8 +34257,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -33086,8 +34292,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -33152,8 +34360,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -33185,8 +34395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -33251,8 +34463,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
@@ -33284,8 +34498,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -33350,8 +34566,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -33383,8 +34601,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -33449,8 +34669,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -33482,8 +34704,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -33548,8 +34772,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -33581,8 +34807,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -33647,8 +34875,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -33680,8 +34910,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -33746,8 +34978,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -33779,8 +35013,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -33845,8 +35081,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -33878,8 +35116,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -33944,8 +35184,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -33977,8 +35219,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -34043,8 +35287,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -34076,8 +35322,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -34142,8 +35390,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -34175,8 +35425,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -34241,8 +35493,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -34274,8 +35528,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -34340,8 +35596,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -34373,8 +35631,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -34439,8 +35699,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -34472,8 +35734,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -34538,8 +35802,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -34571,8 +35837,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -34637,8 +35905,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -34670,8 +35940,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -34736,8 +36008,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -34769,8 +36043,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -34835,8 +36111,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -34868,8 +36146,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -34934,8 +36214,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -34967,8 +36249,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -35033,8 +36317,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -35066,8 +36352,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -35132,8 +36420,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -35165,8 +36455,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -35231,8 +36523,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -35264,8 +36558,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -35330,8 +36626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
@@ -35363,8 +36661,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -35429,8 +36729,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
@@ -35462,8 +36764,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -35759,8 +37063,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -35792,8 +37098,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -35858,8 +37166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -35891,8 +37201,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -35957,8 +37269,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -35990,8 +37304,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -36056,8 +37372,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -36089,8 +37407,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -36155,8 +37475,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -36188,8 +37510,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -36254,8 +37578,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -36287,8 +37613,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
